--- a/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23991AAE-07D6-40B2-8595-4B1BB88D9719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF61125F-3A87-4825-9E06-68861451BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACEF3420-0E1E-451E-B81D-1BBBB970A2A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB205DD0-2952-4A91-AC6B-4DB8CC5ED93F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,57%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>72,43%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>74,77%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>20,23%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>22,97%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>71,36%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FA0AC-B2A6-44DD-8F49-EA8E4836CCE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826D3B69-B73A-41F9-9B9A-70EFC34F3CBA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1348,7 @@
         <v>2461</v>
       </c>
       <c r="D14" s="7">
-        <v>2405913</v>
+        <v>2405912</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4234</v>
       </c>
       <c r="I14" s="7">
-        <v>2922229</v>
+        <v>2922230</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1399,7 +1399,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371537</v>
+        <v>3371536</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3793389</v>
+        <v>3793390</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF61125F-3A87-4825-9E06-68861451BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D661DA6D-BCA4-447D-B6FC-B4C74243D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB205DD0-2952-4A91-AC6B-4DB8CC5ED93F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3003C2A9-8E3D-43A8-A380-F487CE3956E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Una o más de una al día</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826D3B69-B73A-41F9-9B9A-70EFC34F3CBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23D6C7-B7CC-4CA4-A125-FF654D95E46D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>167</v>
       </c>
       <c r="D4" s="7">
-        <v>148706</v>
+        <v>137545</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>287</v>
       </c>
       <c r="I4" s="7">
-        <v>187605</v>
+        <v>164800</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>454</v>
       </c>
       <c r="N4" s="7">
-        <v>336311</v>
+        <v>302345</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>522</v>
       </c>
       <c r="D5" s="7">
-        <v>390654</v>
+        <v>375338</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>1140</v>
       </c>
       <c r="I5" s="7">
-        <v>648348</v>
+        <v>590708</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1662</v>
       </c>
       <c r="N5" s="7">
-        <v>1039001</v>
+        <v>966046</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539360</v>
+        <v>512883</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1375312</v>
+        <v>1268391</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>606</v>
       </c>
       <c r="D7" s="7">
-        <v>680758</v>
+        <v>636316</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>675</v>
       </c>
       <c r="I7" s="7">
-        <v>566438</v>
+        <v>499606</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>1281</v>
       </c>
       <c r="N7" s="7">
-        <v>1247196</v>
+        <v>1135922</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1383</v>
       </c>
       <c r="D8" s="7">
-        <v>1478380</v>
+        <v>1651225</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2239</v>
       </c>
       <c r="I8" s="7">
-        <v>1678458</v>
+        <v>1733945</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>3622</v>
       </c>
       <c r="N8" s="7">
-        <v>3156838</v>
+        <v>3385170</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2159138</v>
+        <v>2287541</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2914</v>
       </c>
       <c r="I9" s="7">
-        <v>2244896</v>
+        <v>2233551</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4903</v>
       </c>
       <c r="N9" s="7">
-        <v>4404034</v>
+        <v>4521092</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>125</v>
       </c>
       <c r="D10" s="7">
-        <v>136161</v>
+        <v>127786</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>146</v>
       </c>
       <c r="I10" s="7">
-        <v>117117</v>
+        <v>105003</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>271</v>
       </c>
       <c r="N10" s="7">
-        <v>253278</v>
+        <v>232788</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>556</v>
       </c>
       <c r="D11" s="7">
-        <v>536878</v>
+        <v>518837</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>855</v>
       </c>
       <c r="I11" s="7">
-        <v>595424</v>
+        <v>554253</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1411</v>
       </c>
       <c r="N11" s="7">
-        <v>1132302</v>
+        <v>1073091</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1001</v>
       </c>
       <c r="I12" s="7">
-        <v>712541</v>
+        <v>659256</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385580</v>
+        <v>1305879</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>898</v>
       </c>
       <c r="D13" s="7">
-        <v>965624</v>
+        <v>901646</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>1108</v>
       </c>
       <c r="I13" s="7">
-        <v>871160</v>
+        <v>769409</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>2006</v>
       </c>
       <c r="N13" s="7">
-        <v>1836784</v>
+        <v>1671056</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2461</v>
       </c>
       <c r="D14" s="7">
-        <v>2405912</v>
+        <v>2545401</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4234</v>
       </c>
       <c r="I14" s="7">
-        <v>2922230</v>
+        <v>2878906</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>6695</v>
       </c>
       <c r="N14" s="7">
-        <v>5328142</v>
+        <v>5424306</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371536</v>
+        <v>3447047</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3793390</v>
+        <v>3648315</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8701</v>
       </c>
       <c r="N15" s="7">
-        <v>7164926</v>
+        <v>7095362</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
+          <t>Población según el número de bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
